--- a/biology/Zoologie/Arachnoides/Arachnoides.xlsx
+++ b/biology/Zoologie/Arachnoides/Arachnoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arachnoides est un genre d'oursins plats, de la famille des Clypeasteridae.
 </t>
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins plats discoïdes mais irréguliers, dont l'anus a migré du disque apical vers la périphérie de la face orale du test (coquille), pour former un « arrière ». Ils mesurent généralement autour de 5 cm de diamètre. Les aires ambulacraires sont en forme de 5 gros pétales, comme chez tous les Clypeasteridae. Les podia sont modifiés en branchies. Ces modifications accompagnent un changement de mode de vie : ils vivent enfouis dans le sable le jour et sortent la nuit pour se nourrir. Ils sont détritivores ou microphages. 
-Au niveau squelettique, les canaux nutritifs oraux sont simples, droits et ne sont pas enfoncés, et additionnés d'un canal reliant péristome et périprocte ; on compte quatre gonopores, et des pétales très ouverts avec des paires de pores alignées en dents de peigne. Le périprocte est marginal[1]. 
-Certaines sources comme l'Echinoid Directory assignent ce genre à une famille propre, les Arachnoididae[1]. 
+Au niveau squelettique, les canaux nutritifs oraux sont simples, droits et ne sont pas enfoncés, et additionnés d'un canal reliant péristome et périprocte ; on compte quatre gonopores, et des pétales très ouverts avec des paires de pores alignées en dents de peigne. Le périprocte est marginal. 
+Certaines sources comme l'Echinoid Directory assignent ce genre à une famille propre, les Arachnoididae. 
 			Face orale.
 			Spécimen mort, avec la lanterne d'Aristote déboîtée.
 			Arachnoides tenuis
-Ce genre est apparu à la fin de l'Éocène[1].
+Ce genre est apparu à la fin de l'Éocène.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (20 avril 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (20 avril 2019) :
 Arachnoides placenta (Linnaeus, 1758) -- Indo-Pacifique central (de Singapour aux Philippines et à l'Australie)
 Arachnoides tenuis H.L. Clark, 1938 -- Australie occidentale (anus dorsal, pas d'encoche anale)</t>
         </is>
